--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/10/seed1/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.880000000000001</v>
+        <v>-7.867999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.85</v>
+        <v>-8.029</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.618</v>
+        <v>-8.297000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.102</v>
+        <v>-7.834000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.874000000000001</v>
+        <v>-7.56</v>
       </c>
     </row>
     <row r="30">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.664</v>
+        <v>-7.276999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.539999999999999</v>
+        <v>-8.193000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.94</v>
+        <v>-7.95</v>
       </c>
     </row>
     <row r="53">
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.084</v>
+        <v>-8.112</v>
       </c>
     </row>
     <row r="58">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.545999999999999</v>
+        <v>-7.316</v>
       </c>
     </row>
     <row r="67">
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.313999999999998</v>
+        <v>-8.079000000000001</v>
       </c>
     </row>
     <row r="101">
